--- a/Coaches_carreers/Coaches_xValues/Mikel Arteta.xlsx
+++ b/Coaches_carreers/Coaches_xValues/Mikel Arteta.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mikel Arteta.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="96">
   <si>
     <t>Season</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>ProbA</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
   <si>
     <t>reference</t>
@@ -667,250 +670,253 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:52">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2">
         <v>43825</v>
       </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
       <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>77</v>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>13</v>
+      </c>
+      <c r="S2">
         <v>4</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <v>5</v>
-      </c>
-      <c r="S2">
-        <v>13</v>
       </c>
       <c r="T2">
         <v>4</v>
       </c>
       <c r="U2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2">
-        <v>0</v>
+      <c r="Y2">
+        <v>3.5</v>
       </c>
       <c r="Z2">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AA2">
-        <v>3.9</v>
+        <v>1.95</v>
       </c>
       <c r="AB2">
-        <v>1.95</v>
+        <v>0.0183150183150184</v>
       </c>
       <c r="AC2">
-        <v>0.0183150183150184</v>
+        <v>0.2673992673992673</v>
       </c>
       <c r="AD2">
-        <v>0.2673992673992673</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="AE2">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="AF2">
         <v>0.4945054945054945</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>56</v>
       </c>
       <c r="AG2">
         <v>0.26</v>
@@ -974,95 +980,95 @@
       </c>
     </row>
     <row r="3" spans="1:52">
-      <c r="A3" s="1">
-        <v>25</v>
+      <c r="A3" t="s">
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2">
         <v>43828</v>
       </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
       <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
         <v>13</v>
       </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
+      <c r="R3">
+        <v>19</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
         <v>4</v>
       </c>
-      <c r="R3">
-        <v>13</v>
-      </c>
-      <c r="S3">
-        <v>19</v>
-      </c>
-      <c r="T3">
-        <v>5</v>
-      </c>
       <c r="U3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="W3">
-        <v>0</v>
+      <c r="Y3">
+        <v>2.87</v>
       </c>
       <c r="Z3">
-        <v>2.87</v>
+        <v>3.75</v>
       </c>
       <c r="AA3">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="AB3">
-        <v>2.3</v>
+        <v>0.01662711037048255</v>
       </c>
       <c r="AC3">
-        <v>0.01662711037048255</v>
+        <v>0.3318049453786464</v>
       </c>
       <c r="AD3">
-        <v>0.3318049453786464</v>
+        <v>0.2500395562961841</v>
       </c>
       <c r="AE3">
-        <v>0.2500395562961841</v>
-      </c>
-      <c r="AF3">
         <v>0.4181554983251697</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>56</v>
       </c>
       <c r="AG3">
         <v>0.32</v>
@@ -1126,65 +1132,65 @@
       </c>
     </row>
     <row r="4" spans="1:52">
-      <c r="A4" s="1">
-        <v>29</v>
+      <c r="A4" t="s">
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2">
         <v>43831</v>
       </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
       <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
       </c>
       <c r="N4">
         <v>10</v>
       </c>
       <c r="O4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P4">
         <v>4</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1192,29 +1198,29 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>0</v>
+      <c r="Y4">
+        <v>2.55</v>
       </c>
       <c r="Z4">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="AA4">
-        <v>3.6</v>
+        <v>2.62</v>
       </c>
       <c r="AB4">
-        <v>2.62</v>
+        <v>0.01720467661195098</v>
       </c>
       <c r="AC4">
-        <v>0.01720467661195098</v>
+        <v>0.3749521861331471</v>
       </c>
       <c r="AD4">
-        <v>0.3749521861331471</v>
+        <v>0.2605731011658268</v>
       </c>
       <c r="AE4">
-        <v>0.2605731011658268</v>
-      </c>
-      <c r="AF4">
         <v>0.3644747127010261</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>56</v>
       </c>
       <c r="AG4">
         <v>0.36</v>
@@ -1278,95 +1284,95 @@
       </c>
     </row>
     <row r="5" spans="1:52">
-      <c r="A5" s="1">
-        <v>45</v>
+      <c r="A5" t="s">
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2">
         <v>43841</v>
       </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
       <c r="E5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" t="s">
-        <v>55</v>
+      <c r="F5">
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>77</v>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>22</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
         <v>3</v>
       </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>14</v>
-      </c>
-      <c r="S5">
-        <v>22</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
       <c r="U5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>4.1</v>
       </c>
       <c r="Z5">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AA5">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="AB5">
-        <v>1.8</v>
+        <v>0.0186227503300674</v>
       </c>
       <c r="AC5">
-        <v>0.0186227503300674</v>
+        <v>0.2252796886943229</v>
       </c>
       <c r="AD5">
-        <v>0.2252796886943229</v>
+        <v>0.237787506080189</v>
       </c>
       <c r="AE5">
-        <v>0.237787506080189</v>
-      </c>
-      <c r="AF5">
         <v>0.5369328052254881</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>56</v>
       </c>
       <c r="AG5">
         <v>0.22</v>
@@ -1430,95 +1436,95 @@
       </c>
     </row>
     <row r="6" spans="1:52">
-      <c r="A6" s="1">
-        <v>49</v>
+      <c r="A6" t="s">
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2">
         <v>43848</v>
       </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
       <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="M6">
+        <v>11</v>
       </c>
       <c r="N6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P6">
         <v>4</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6">
-        <v>0</v>
+      <c r="Y6">
+        <v>1.83</v>
       </c>
       <c r="Z6">
-        <v>1.83</v>
+        <v>3.6</v>
       </c>
       <c r="AA6">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AB6">
-        <v>4.33</v>
+        <v>0.01839091580885392</v>
       </c>
       <c r="AC6">
-        <v>0.01839091580885392</v>
+        <v>0.52805717162284</v>
       </c>
       <c r="AD6">
-        <v>0.52805717162284</v>
+        <v>0.2593868619689239</v>
       </c>
       <c r="AE6">
-        <v>0.2593868619689239</v>
-      </c>
-      <c r="AF6">
         <v>0.2125559664082362</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>56</v>
       </c>
       <c r="AG6">
         <v>0.52</v>
@@ -1582,95 +1588,95 @@
       </c>
     </row>
     <row r="7" spans="1:52">
-      <c r="A7" s="1">
-        <v>53</v>
+      <c r="A7" t="s">
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2">
         <v>43851</v>
       </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>77</v>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="M7">
+        <v>19</v>
       </c>
       <c r="N7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1.72</v>
       </c>
       <c r="Z7">
-        <v>1.72</v>
+        <v>3.9</v>
       </c>
       <c r="AA7">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="AB7">
-        <v>4.5</v>
+        <v>0.02000927582322938</v>
       </c>
       <c r="AC7">
-        <v>0.02000927582322938</v>
+        <v>0.5613860730139799</v>
       </c>
       <c r="AD7">
-        <v>0.5613860730139799</v>
+        <v>0.236400980587027</v>
       </c>
       <c r="AE7">
-        <v>0.236400980587027</v>
-      </c>
-      <c r="AF7">
         <v>0.2022129463989928</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>56</v>
       </c>
       <c r="AG7">
         <v>0.5600000000000001</v>
@@ -1734,95 +1740,95 @@
       </c>
     </row>
     <row r="8" spans="1:52">
-      <c r="A8" s="1">
-        <v>5</v>
+      <c r="A8" t="s">
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2">
         <v>43863</v>
       </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
       <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>77</v>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
+      <c r="K8" t="s">
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="M8">
+        <v>15</v>
       </c>
       <c r="N8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="W8">
-        <v>0</v>
+      <c r="Y8">
+        <v>3.6</v>
       </c>
       <c r="Z8">
         <v>3.6</v>
       </c>
       <c r="AA8">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>0.01851851851851853</v>
       </c>
       <c r="AC8">
-        <v>0.01851851851851853</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="AD8">
         <v>0.2592592592592592</v>
       </c>
       <c r="AE8">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="AF8">
         <v>0.4814814814814815</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>56</v>
       </c>
       <c r="AG8">
         <v>0.26</v>
@@ -1886,65 +1892,65 @@
       </c>
     </row>
     <row r="9" spans="1:52">
-      <c r="A9" s="1">
-        <v>57</v>
+      <c r="A9" t="s">
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2">
         <v>43877</v>
       </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
       <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
+      <c r="K9" t="s">
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="M9">
+        <v>15</v>
       </c>
       <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
         <v>15</v>
       </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-      <c r="P9">
-        <v>7</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
       <c r="R9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="S9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1952,29 +1958,29 @@
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9">
-        <v>0</v>
+      <c r="Y9">
+        <v>1.4</v>
       </c>
       <c r="Z9">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="AA9">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="AB9">
-        <v>8</v>
+        <v>0.01660401002506262</v>
       </c>
       <c r="AC9">
-        <v>0.01660401002506262</v>
+        <v>0.6976817042606517</v>
       </c>
       <c r="AD9">
-        <v>0.6976817042606517</v>
+        <v>0.1939223057644111</v>
       </c>
       <c r="AE9">
-        <v>0.1939223057644111</v>
-      </c>
-      <c r="AF9">
         <v>0.1083959899749374</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>56</v>
       </c>
       <c r="AG9">
         <v>0.7</v>
@@ -2038,95 +2044,95 @@
       </c>
     </row>
     <row r="10" spans="1:52">
-      <c r="A10" s="1">
-        <v>58</v>
+      <c r="A10" t="s">
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2">
         <v>43884</v>
       </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
       <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
-      <c r="K10">
-        <v>2</v>
+      <c r="K10" t="s">
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
       </c>
       <c r="N10">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O10">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R10">
         <v>12</v>
       </c>
       <c r="S10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10">
-        <v>0</v>
+      <c r="Y10">
+        <v>2</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="AA10">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AB10">
-        <v>3.7</v>
+        <v>0.01601601601601603</v>
       </c>
       <c r="AC10">
-        <v>0.01601601601601603</v>
+        <v>0.483983983983984</v>
       </c>
       <c r="AD10">
-        <v>0.483983983983984</v>
+        <v>0.2617617617617617</v>
       </c>
       <c r="AE10">
-        <v>0.2617617617617617</v>
-      </c>
-      <c r="AF10">
         <v>0.2542542542542542</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>56</v>
       </c>
       <c r="AG10">
         <v>0.48</v>
@@ -2190,95 +2196,95 @@
       </c>
     </row>
     <row r="11" spans="1:52">
-      <c r="A11" s="1">
-        <v>74</v>
+      <c r="A11" t="s">
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2">
         <v>43897</v>
       </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
       <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
+      <c r="K11" t="s">
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
       </c>
       <c r="N11">
+        <v>14</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>11</v>
+      </c>
+      <c r="R11">
         <v>9</v>
       </c>
-      <c r="O11">
-        <v>14</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-      <c r="Q11">
-        <v>6</v>
-      </c>
-      <c r="R11">
-        <v>11</v>
-      </c>
       <c r="S11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="W11">
-        <v>0</v>
+      <c r="Y11">
+        <v>1.57</v>
       </c>
       <c r="Z11">
-        <v>1.57</v>
+        <v>4.4</v>
       </c>
       <c r="AA11">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB11">
-        <v>5.5</v>
+        <v>0.01534452808338157</v>
       </c>
       <c r="AC11">
-        <v>0.01534452808338157</v>
+        <v>0.621598147075854</v>
       </c>
       <c r="AD11">
-        <v>0.621598147075854</v>
+        <v>0.2119281991893457</v>
       </c>
       <c r="AE11">
-        <v>0.2119281991893457</v>
-      </c>
-      <c r="AF11">
         <v>0.1664736537348002</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>56</v>
       </c>
       <c r="AG11">
         <v>0.62</v>
@@ -2342,95 +2348,95 @@
       </c>
     </row>
     <row r="12" spans="1:52">
-      <c r="A12" s="1">
-        <v>99</v>
+      <c r="A12" t="s">
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2">
         <v>43999</v>
       </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
       <c r="E12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
         <v>3</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" t="s">
-        <v>87</v>
-      </c>
-      <c r="N12">
-        <v>20</v>
-      </c>
       <c r="O12">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>1</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1.36</v>
       </c>
       <c r="Z12">
-        <v>1.36</v>
+        <v>5.25</v>
       </c>
       <c r="AA12">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="AB12">
-        <v>7.5</v>
+        <v>0.01970121381886088</v>
       </c>
       <c r="AC12">
-        <v>0.01970121381886088</v>
+        <v>0.7155929038281978</v>
       </c>
       <c r="AD12">
-        <v>0.7155929038281978</v>
+        <v>0.1707749766573296</v>
       </c>
       <c r="AE12">
-        <v>0.1707749766573296</v>
-      </c>
-      <c r="AF12">
         <v>0.1136321195144725</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>56</v>
       </c>
       <c r="AG12">
         <v>0.72</v>
@@ -2494,95 +2500,95 @@
       </c>
     </row>
     <row r="13" spans="1:52">
-      <c r="A13" s="1">
-        <v>100</v>
+      <c r="A13" t="s">
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2">
         <v>44002</v>
       </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
       <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
+      <c r="K13" t="s">
+        <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13">
         <v>13</v>
       </c>
-      <c r="P13">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <v>6</v>
-      </c>
       <c r="R13">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
-      <c r="W13">
-        <v>0</v>
+      <c r="Y13">
+        <v>3.1</v>
       </c>
       <c r="Z13">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AA13">
-        <v>3.25</v>
+        <v>2.37</v>
       </c>
       <c r="AB13">
-        <v>2.37</v>
+        <v>0.01740462704121337</v>
       </c>
       <c r="AC13">
-        <v>0.01740462704121337</v>
+        <v>0.3051760181200769</v>
       </c>
       <c r="AD13">
-        <v>0.3051760181200769</v>
+        <v>0.2902876806510943</v>
       </c>
       <c r="AE13">
-        <v>0.2902876806510943</v>
-      </c>
-      <c r="AF13">
         <v>0.4045363012288288</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>56</v>
       </c>
       <c r="AG13">
         <v>0.3</v>
@@ -2646,95 +2652,95 @@
       </c>
     </row>
     <row r="14" spans="1:52">
-      <c r="A14" s="1">
-        <v>33</v>
+      <c r="A14" t="s">
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2">
         <v>44007</v>
       </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
       <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>79</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
       </c>
       <c r="N14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
         <v>10</v>
       </c>
-      <c r="P14">
-        <v>3</v>
-      </c>
-      <c r="Q14">
-        <v>5</v>
-      </c>
       <c r="R14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>2.6</v>
       </c>
       <c r="Z14">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="AA14">
-        <v>3.5</v>
+        <v>2.62</v>
       </c>
       <c r="AB14">
-        <v>2.62</v>
+        <v>0.01733635321421574</v>
       </c>
       <c r="AC14">
-        <v>0.01733635321421574</v>
+        <v>0.3672790314011689</v>
       </c>
       <c r="AD14">
-        <v>0.3672790314011689</v>
+        <v>0.26837793250007</v>
       </c>
       <c r="AE14">
-        <v>0.26837793250007</v>
-      </c>
-      <c r="AF14">
         <v>0.3643430360987613</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>56</v>
       </c>
       <c r="AG14">
         <v>0.36</v>
@@ -2798,95 +2804,95 @@
       </c>
     </row>
     <row r="15" spans="1:52">
-      <c r="A15" s="1">
-        <v>104</v>
+      <c r="A15" t="s">
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2">
         <v>44013</v>
       </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
       <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
       </c>
       <c r="N15">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O15">
         <v>8</v>
       </c>
       <c r="P15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R15">
         <v>10</v>
       </c>
       <c r="S15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15">
-        <v>0</v>
+      <c r="Y15">
+        <v>1.44</v>
       </c>
       <c r="Z15">
-        <v>1.44</v>
+        <v>4.75</v>
       </c>
       <c r="AA15">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AB15">
-        <v>7</v>
+        <v>0.01594263436368696</v>
       </c>
       <c r="AC15">
-        <v>0.01594263436368696</v>
+        <v>0.6785018100807575</v>
       </c>
       <c r="AD15">
-        <v>0.6785018100807575</v>
+        <v>0.1945836814257867</v>
       </c>
       <c r="AE15">
-        <v>0.1945836814257867</v>
-      </c>
-      <c r="AF15">
         <v>0.1269145084934559</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>56</v>
       </c>
       <c r="AG15">
         <v>0.68</v>
@@ -2950,95 +2956,95 @@
       </c>
     </row>
     <row r="16" spans="1:52">
-      <c r="A16" s="1">
-        <v>113</v>
+      <c r="A16" t="s">
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2">
+        <v>54</v>
+      </c>
+      <c r="C16" s="2">
         <v>44016</v>
       </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
       <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
       </c>
       <c r="L16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
       </c>
       <c r="N16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S16">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="W16">
-        <v>0</v>
+      <c r="Y16">
+        <v>2.25</v>
       </c>
       <c r="Z16">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="AA16">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AB16">
-        <v>3.25</v>
+        <v>0.01541813306519191</v>
       </c>
       <c r="AC16">
-        <v>0.01541813306519191</v>
+        <v>0.4290263113792525</v>
       </c>
       <c r="AD16">
-        <v>0.4290263113792525</v>
+        <v>0.2786995139936316</v>
       </c>
       <c r="AE16">
-        <v>0.2786995139936316</v>
-      </c>
-      <c r="AF16">
         <v>0.2922741746271158</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
       </c>
       <c r="AG16">
         <v>0.42</v>
@@ -3102,95 +3108,95 @@
       </c>
     </row>
     <row r="17" spans="1:52">
-      <c r="A17" s="1">
-        <v>116</v>
+      <c r="A17" t="s">
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2">
         <v>44019</v>
       </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
       <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>77</v>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>80</v>
       </c>
       <c r="L17" t="s">
-        <v>79</v>
-      </c>
-      <c r="M17" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
       </c>
       <c r="N17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S17">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>2.3</v>
       </c>
       <c r="Z17">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="AA17">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AB17">
-        <v>3</v>
+        <v>0.01794340924775706</v>
       </c>
       <c r="AC17">
-        <v>0.01794340924775706</v>
+        <v>0.4168391994478952</v>
       </c>
       <c r="AD17">
-        <v>0.4168391994478952</v>
+        <v>0.2677708764665286</v>
       </c>
       <c r="AE17">
-        <v>0.2677708764665286</v>
-      </c>
-      <c r="AF17">
         <v>0.3153899240855763</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>56</v>
       </c>
       <c r="AG17">
         <v>0.42</v>
@@ -3254,95 +3260,95 @@
       </c>
     </row>
     <row r="18" spans="1:52">
-      <c r="A18" s="1">
-        <v>37</v>
+      <c r="A18" t="s">
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2">
         <v>44024</v>
       </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
       <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18">
-        <v>1</v>
+      <c r="K18" t="s">
+        <v>78</v>
       </c>
       <c r="L18" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
       </c>
       <c r="N18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O18">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R18">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="S18">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18">
-        <v>0</v>
+      <c r="Y18">
+        <v>2.62</v>
       </c>
       <c r="Z18">
-        <v>2.62</v>
+        <v>3.4</v>
       </c>
       <c r="AA18">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="AB18">
-        <v>2.7</v>
+        <v>0.01538913558072371</v>
       </c>
       <c r="AC18">
-        <v>0.01538913558072371</v>
+        <v>0.3662902537322534</v>
       </c>
       <c r="AD18">
-        <v>0.3662902537322534</v>
+        <v>0.2787285114780998</v>
       </c>
       <c r="AE18">
-        <v>0.2787285114780998</v>
-      </c>
-      <c r="AF18">
         <v>0.3549812347896467</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>56</v>
       </c>
       <c r="AG18">
         <v>0.36</v>
@@ -3406,95 +3412,95 @@
       </c>
     </row>
     <row r="19" spans="1:52">
-      <c r="A19" s="1">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2">
         <v>44027</v>
       </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
       <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>80</v>
       </c>
       <c r="L19" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
       </c>
       <c r="N19">
+        <v>24</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>8</v>
+      </c>
+      <c r="Q19">
+        <v>14</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19">
         <v>3</v>
       </c>
-      <c r="O19">
-        <v>24</v>
-      </c>
-      <c r="P19">
-        <v>2</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-      <c r="R19">
-        <v>14</v>
-      </c>
-      <c r="S19">
-        <v>10</v>
-      </c>
       <c r="T19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19">
-        <v>0</v>
+      <c r="Y19">
+        <v>3.8</v>
       </c>
       <c r="Z19">
         <v>3.8</v>
       </c>
       <c r="AA19">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="AB19">
-        <v>1.9</v>
+        <v>0.01754385964912279</v>
       </c>
       <c r="AC19">
-        <v>0.01754385964912279</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="AD19">
         <v>0.2456140350877193</v>
       </c>
       <c r="AE19">
-        <v>0.2456140350877193</v>
-      </c>
-      <c r="AF19">
         <v>0.5087719298245614</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>56</v>
       </c>
       <c r="AG19">
         <v>0.24</v>
@@ -3558,95 +3564,95 @@
       </c>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="1">
-        <v>123</v>
+      <c r="A20" t="s">
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="2">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2">
         <v>44033</v>
       </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
       <c r="E20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>80</v>
       </c>
       <c r="L20" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="M20">
+        <v>8</v>
       </c>
       <c r="N20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R20">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="S20">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
-      <c r="W20">
-        <v>0</v>
+      <c r="Y20">
+        <v>3.3</v>
       </c>
       <c r="Z20">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AA20">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="AB20">
-        <v>2.1</v>
+        <v>0.01899951899951905</v>
       </c>
       <c r="AC20">
-        <v>0.01899951899951905</v>
+        <v>0.284030784030784</v>
       </c>
       <c r="AD20">
-        <v>0.284030784030784</v>
+        <v>0.2587782587782587</v>
       </c>
       <c r="AE20">
-        <v>0.2587782587782587</v>
-      </c>
-      <c r="AF20">
         <v>0.4571909571909571</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>56</v>
       </c>
       <c r="AG20">
         <v>0.28</v>
@@ -3710,95 +3716,95 @@
       </c>
     </row>
     <row r="21" spans="1:52">
-      <c r="A21" s="1">
-        <v>127</v>
+      <c r="A21" t="s">
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2">
         <v>44038</v>
       </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
       <c r="E21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
       </c>
       <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>79</v>
-      </c>
       <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21">
+        <v>13</v>
+      </c>
+      <c r="N21">
+        <v>19</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+      <c r="R21">
+        <v>12</v>
+      </c>
+      <c r="S21">
         <v>3</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>79</v>
-      </c>
-      <c r="M21" t="s">
-        <v>84</v>
-      </c>
-      <c r="N21">
-        <v>13</v>
-      </c>
-      <c r="O21">
-        <v>19</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="Q21">
-        <v>6</v>
-      </c>
-      <c r="R21">
-        <v>9</v>
-      </c>
-      <c r="S21">
-        <v>12</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
-      <c r="W21">
-        <v>0</v>
+      <c r="Y21">
+        <v>1.9</v>
       </c>
       <c r="Z21">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="AA21">
         <v>3.8</v>
       </c>
       <c r="AB21">
-        <v>3.8</v>
+        <v>0.01754385964912279</v>
       </c>
       <c r="AC21">
-        <v>0.01754385964912279</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="AD21">
-        <v>0.5087719298245614</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="AE21">
         <v>0.2456140350877193</v>
       </c>
-      <c r="AF21">
-        <v>0.2456140350877193</v>
+      <c r="AF21" t="s">
+        <v>56</v>
       </c>
       <c r="AG21">
         <v>0.5</v>
@@ -3862,95 +3868,95 @@
       </c>
     </row>
     <row r="22" spans="1:52">
-      <c r="A22" s="1">
-        <v>131</v>
+      <c r="A22" t="s">
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="2">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2">
         <v>44086</v>
       </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
       <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
         <v>3</v>
       </c>
-      <c r="I22" t="s">
-        <v>78</v>
+      <c r="H22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>79</v>
       </c>
       <c r="L22" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O22">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R22">
         <v>12</v>
       </c>
       <c r="S22">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>2</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22">
-        <v>0</v>
+      <c r="Y22">
+        <v>6</v>
       </c>
       <c r="Z22">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AA22">
-        <v>4.33</v>
+        <v>1.53</v>
       </c>
       <c r="AB22">
-        <v>1.53</v>
+        <v>0.01706944004186228</v>
       </c>
       <c r="AC22">
-        <v>0.01706944004186228</v>
+        <v>0.1495972266248044</v>
       </c>
       <c r="AD22">
-        <v>0.1495972266248044</v>
+        <v>0.2138774421752278</v>
       </c>
       <c r="AE22">
-        <v>0.2138774421752278</v>
-      </c>
-      <c r="AF22">
         <v>0.6365253311999678</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>56</v>
       </c>
       <c r="AG22">
         <v>0.14</v>
@@ -4014,95 +4020,95 @@
       </c>
     </row>
     <row r="23" spans="1:52">
-      <c r="A23" s="1">
-        <v>79</v>
+      <c r="A23" t="s">
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="2">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2">
         <v>44093</v>
       </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
       <c r="E23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="K23">
-        <v>1</v>
+      <c r="K23" t="s">
+        <v>78</v>
       </c>
       <c r="L23" t="s">
-        <v>77</v>
-      </c>
-      <c r="M23" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
       </c>
       <c r="N23">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O23">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P23">
         <v>3</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S23">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
-      <c r="W23">
-        <v>0</v>
+      <c r="Y23">
+        <v>1.53</v>
       </c>
       <c r="Z23">
-        <v>1.53</v>
+        <v>4.5</v>
       </c>
       <c r="AA23">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AB23">
-        <v>5.5</v>
+        <v>0.01921172509407805</v>
       </c>
       <c r="AC23">
-        <v>0.01921172509407805</v>
+        <v>0.634383046147752</v>
       </c>
       <c r="AD23">
-        <v>0.634383046147752</v>
+        <v>0.2030104971281441</v>
       </c>
       <c r="AE23">
-        <v>0.2030104971281441</v>
-      </c>
-      <c r="AF23">
         <v>0.1626064567241038</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>56</v>
       </c>
       <c r="AG23">
         <v>0.62</v>
@@ -4166,95 +4172,95 @@
       </c>
     </row>
     <row r="24" spans="1:52">
-      <c r="A24" s="1">
-        <v>147</v>
+      <c r="A24" t="s">
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="2">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2">
         <v>44102</v>
       </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
       <c r="E24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
       </c>
       <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M24">
+        <v>21</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>8</v>
+      </c>
+      <c r="P24">
         <v>3</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>79</v>
-      </c>
-      <c r="M24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N24">
-        <v>21</v>
-      </c>
-      <c r="O24">
-        <v>4</v>
-      </c>
-      <c r="P24">
-        <v>8</v>
-      </c>
       <c r="Q24">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R24">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>2</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
-      <c r="W24">
-        <v>0</v>
+      <c r="Y24">
+        <v>1.45</v>
       </c>
       <c r="Z24">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="AA24">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AB24">
-        <v>6.5</v>
+        <v>0.0180092140164736</v>
       </c>
       <c r="AC24">
-        <v>0.0180092140164736</v>
+        <v>0.6716459583973196</v>
       </c>
       <c r="AD24">
-        <v>0.6716459583973196</v>
+        <v>0.1925171017730001</v>
       </c>
       <c r="AE24">
-        <v>0.1925171017730001</v>
-      </c>
-      <c r="AF24">
         <v>0.1358369398296803</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>56</v>
       </c>
       <c r="AG24">
         <v>0.66</v>
@@ -4318,95 +4324,95 @@
       </c>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="1">
-        <v>84</v>
+      <c r="A25" t="s">
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="2">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2">
         <v>44108</v>
       </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
       <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>0</v>
+      <c r="K25" t="s">
+        <v>78</v>
       </c>
       <c r="L25" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
       </c>
       <c r="N25">
         <v>6</v>
       </c>
       <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>9</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>1.57</v>
+      </c>
+      <c r="Z25">
+        <v>4</v>
+      </c>
+      <c r="AA25">
         <v>6</v>
       </c>
-      <c r="P25">
-        <v>5</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="R25">
-        <v>3</v>
-      </c>
-      <c r="S25">
-        <v>9</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>1.57</v>
-      </c>
-      <c r="AA25">
-        <v>4</v>
-      </c>
       <c r="AB25">
-        <v>6</v>
+        <v>0.01786978060863409</v>
       </c>
       <c r="AC25">
-        <v>0.01786978060863409</v>
+        <v>0.6190728945506015</v>
       </c>
       <c r="AD25">
-        <v>0.6190728945506015</v>
+        <v>0.2321302193913659</v>
       </c>
       <c r="AE25">
-        <v>0.2321302193913659</v>
-      </c>
-      <c r="AF25">
         <v>0.1487968860580326</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>56</v>
       </c>
       <c r="AG25">
         <v>0.62</v>
@@ -4470,95 +4476,95 @@
       </c>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="1">
-        <v>107</v>
+      <c r="A26" t="s">
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="2">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2">
         <v>44121</v>
       </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
       <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>80</v>
       </c>
       <c r="L26" t="s">
-        <v>79</v>
-      </c>
-      <c r="M26" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="M26">
+        <v>13</v>
       </c>
       <c r="N26">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>15</v>
+      </c>
+      <c r="R26">
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1.44</v>
+      </c>
+      <c r="Z26">
         <v>5</v>
       </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
-      <c r="R26">
-        <v>15</v>
-      </c>
-      <c r="S26">
-        <v>10</v>
-      </c>
-      <c r="T26">
-        <v>4</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>1.44</v>
-      </c>
       <c r="AA26">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AB26">
-        <v>6.5</v>
+        <v>0.01609686609686604</v>
       </c>
       <c r="AC26">
-        <v>0.01609686609686604</v>
+        <v>0.6783475783475784</v>
       </c>
       <c r="AD26">
-        <v>0.6783475783475784</v>
+        <v>0.183903133903134</v>
       </c>
       <c r="AE26">
-        <v>0.183903133903134</v>
-      </c>
-      <c r="AF26">
         <v>0.1377492877492878</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>56</v>
       </c>
       <c r="AG26">
         <v>0.68</v>
@@ -4622,95 +4628,95 @@
       </c>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="1">
-        <v>129</v>
+      <c r="A27" t="s">
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="2">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2">
         <v>44129</v>
       </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
       <c r="E27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
         <v>78</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
       <c r="L27" t="s">
-        <v>77</v>
-      </c>
-      <c r="M27" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="M27">
+        <v>12</v>
       </c>
       <c r="N27">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="R27">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S27">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="W27">
-        <v>0</v>
+      <c r="Y27">
+        <v>1.9</v>
       </c>
       <c r="Z27">
-        <v>1.9</v>
+        <v>3.75</v>
       </c>
       <c r="AA27">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AB27">
-        <v>3.8</v>
+        <v>0.01871345029239764</v>
       </c>
       <c r="AC27">
-        <v>0.01871345029239764</v>
+        <v>0.5076023391812865</v>
       </c>
       <c r="AD27">
-        <v>0.5076023391812865</v>
+        <v>0.247953216374269</v>
       </c>
       <c r="AE27">
-        <v>0.247953216374269</v>
-      </c>
-      <c r="AF27">
         <v>0.2444444444444444</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>56</v>
       </c>
       <c r="AG27">
         <v>0.5</v>
@@ -4774,95 +4780,95 @@
       </c>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="1">
-        <v>62</v>
+      <c r="A28" t="s">
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="2">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2">
         <v>44136</v>
       </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
       <c r="E28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
         <v>78</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
       <c r="L28" t="s">
-        <v>77</v>
-      </c>
-      <c r="M28" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="M28">
+        <v>8</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O28">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P28">
         <v>2</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R28">
         <v>12</v>
       </c>
       <c r="S28">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T28">
         <v>3</v>
       </c>
       <c r="U28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
-      <c r="W28">
-        <v>0</v>
+      <c r="Y28">
+        <v>2</v>
       </c>
       <c r="Z28">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="AA28">
         <v>3.6</v>
       </c>
       <c r="AB28">
-        <v>3.6</v>
+        <v>0.01851851851851853</v>
       </c>
       <c r="AC28">
-        <v>0.01851851851851853</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="AD28">
-        <v>0.4814814814814815</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="AE28">
         <v>0.2592592592592592</v>
       </c>
-      <c r="AF28">
-        <v>0.2592592592592592</v>
+      <c r="AF28" t="s">
+        <v>56</v>
       </c>
       <c r="AG28">
         <v>0.48</v>
@@ -4926,62 +4932,62 @@
       </c>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="1">
-        <v>151</v>
+      <c r="A29" t="s">
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="2">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2">
         <v>44143</v>
       </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
       <c r="E29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
         <v>3</v>
       </c>
-      <c r="I29" t="s">
-        <v>78</v>
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>79</v>
       </c>
       <c r="L29" t="s">
-        <v>78</v>
-      </c>
-      <c r="M29" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="M29">
+        <v>13</v>
       </c>
       <c r="N29">
+        <v>15</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <v>11</v>
+      </c>
+      <c r="R29">
         <v>13</v>
       </c>
-      <c r="O29">
-        <v>15</v>
-      </c>
-      <c r="P29">
-        <v>2</v>
-      </c>
-      <c r="Q29">
-        <v>6</v>
-      </c>
-      <c r="R29">
-        <v>11</v>
-      </c>
       <c r="S29">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -4992,29 +4998,29 @@
       <c r="V29">
         <v>0</v>
       </c>
-      <c r="W29">
-        <v>0</v>
+      <c r="Y29">
+        <v>1.65</v>
       </c>
       <c r="Z29">
-        <v>1.65</v>
+        <v>4.1</v>
       </c>
       <c r="AA29">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="AB29">
-        <v>5</v>
+        <v>0.01665434836166546</v>
       </c>
       <c r="AC29">
-        <v>0.01665434836166546</v>
+        <v>0.5894062576989406</v>
       </c>
       <c r="AD29">
-        <v>0.5894062576989406</v>
+        <v>0.2272480906627248</v>
       </c>
       <c r="AE29">
-        <v>0.2272480906627248</v>
-      </c>
-      <c r="AF29">
         <v>0.1833456516383346</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>56</v>
       </c>
       <c r="AG29">
         <v>0.58</v>
@@ -5078,95 +5084,95 @@
       </c>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="1">
-        <v>27</v>
+      <c r="A30" t="s">
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="2">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2">
         <v>44157</v>
       </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
       <c r="E30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>77</v>
+      <c r="H30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30">
-        <v>0</v>
+      <c r="K30" t="s">
+        <v>78</v>
       </c>
       <c r="L30" t="s">
-        <v>77</v>
-      </c>
-      <c r="M30" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
       </c>
       <c r="N30">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
         <v>9</v>
       </c>
-      <c r="P30">
-        <v>4</v>
-      </c>
-      <c r="Q30">
-        <v>2</v>
-      </c>
       <c r="R30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
         <v>3</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
       <c r="Z30">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AA30">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="AB30">
-        <v>2.2</v>
+        <v>0.01818181818181815</v>
       </c>
       <c r="AC30">
-        <v>0.01818181818181815</v>
+        <v>0.3151515151515152</v>
       </c>
       <c r="AD30">
-        <v>0.3151515151515152</v>
+        <v>0.2484848484848485</v>
       </c>
       <c r="AE30">
-        <v>0.2484848484848485</v>
-      </c>
-      <c r="AF30">
         <v>0.4363636363636364</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>56</v>
       </c>
       <c r="AG30">
         <v>0.32</v>
@@ -5230,95 +5236,95 @@
       </c>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="1">
-        <v>155</v>
+      <c r="A31" t="s">
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="2">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2">
         <v>44164</v>
       </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
       <c r="E31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>79</v>
       </c>
       <c r="L31" t="s">
-        <v>78</v>
-      </c>
-      <c r="M31" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
       </c>
       <c r="N31">
+        <v>11</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>5</v>
+      </c>
+      <c r="Q31">
         <v>13</v>
-      </c>
-      <c r="O31">
-        <v>11</v>
-      </c>
-      <c r="P31">
-        <v>2</v>
-      </c>
-      <c r="Q31">
-        <v>5</v>
       </c>
       <c r="R31">
         <v>13</v>
       </c>
       <c r="S31">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
-      <c r="W31">
-        <v>0</v>
+      <c r="Y31">
+        <v>2.05</v>
       </c>
       <c r="Z31">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="AA31">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AB31">
-        <v>3.75</v>
+        <v>0.01619639725809023</v>
       </c>
       <c r="AC31">
-        <v>0.01619639725809023</v>
+        <v>0.4716084807906903</v>
       </c>
       <c r="AD31">
-        <v>0.4716084807906903</v>
+        <v>0.2779212498007333</v>
       </c>
       <c r="AE31">
-        <v>0.2779212498007333</v>
-      </c>
-      <c r="AF31">
         <v>0.2504702694085764</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>56</v>
       </c>
       <c r="AG31">
         <v>0.46</v>
@@ -5382,95 +5388,95 @@
       </c>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="1">
-        <v>66</v>
+      <c r="A32" t="s">
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="2">
+        <v>54</v>
+      </c>
+      <c r="C32" s="2">
         <v>44171</v>
       </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
       <c r="E32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>2</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>80</v>
       </c>
       <c r="L32" t="s">
-        <v>79</v>
-      </c>
-      <c r="M32" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
       </c>
       <c r="N32">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O32">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="R32">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S32">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32">
-        <v>0</v>
+      <c r="Y32">
+        <v>1.95</v>
       </c>
       <c r="Z32">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="AA32">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AB32">
-        <v>3.8</v>
+        <v>0.01791872844504424</v>
       </c>
       <c r="AC32">
-        <v>0.01791872844504424</v>
+        <v>0.4949017843754687</v>
       </c>
       <c r="AD32">
-        <v>0.4949017843754687</v>
+        <v>0.2598590493327336</v>
       </c>
       <c r="AE32">
-        <v>0.2598590493327336</v>
-      </c>
-      <c r="AF32">
         <v>0.2452391662917978</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>56</v>
       </c>
       <c r="AG32">
         <v>0.48</v>
@@ -5534,95 +5540,95 @@
       </c>
     </row>
     <row r="33" spans="1:52">
-      <c r="A33" s="1">
-        <v>156</v>
+      <c r="A33" t="s">
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="2">
+        <v>54</v>
+      </c>
+      <c r="C33" s="2">
         <v>44178</v>
       </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
       <c r="E33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
         <v>78</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
       <c r="L33" t="s">
-        <v>77</v>
-      </c>
-      <c r="M33" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="M33">
+        <v>18</v>
       </c>
       <c r="N33">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="O33">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R33">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S33">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U33">
         <v>1</v>
       </c>
       <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>1.53</v>
       </c>
       <c r="Z33">
-        <v>1.53</v>
+        <v>4.2</v>
       </c>
       <c r="AA33">
-        <v>4.2</v>
+        <v>6.25</v>
       </c>
       <c r="AB33">
-        <v>6.25</v>
+        <v>0.01723000311235601</v>
       </c>
       <c r="AC33">
-        <v>0.01723000311235601</v>
+        <v>0.6363647681294741</v>
       </c>
       <c r="AD33">
-        <v>0.6363647681294741</v>
+        <v>0.2208652349828821</v>
       </c>
       <c r="AE33">
-        <v>0.2208652349828821</v>
-      </c>
-      <c r="AF33">
         <v>0.142769996887644</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>56</v>
       </c>
       <c r="AG33">
         <v>0.64</v>
@@ -5686,95 +5692,95 @@
       </c>
     </row>
     <row r="34" spans="1:52">
-      <c r="A34" s="1">
-        <v>119</v>
+      <c r="A34" t="s">
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="2">
+        <v>54</v>
+      </c>
+      <c r="C34" s="2">
         <v>44181</v>
       </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
       <c r="E34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>77</v>
+      <c r="H34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>79</v>
       </c>
       <c r="L34" t="s">
-        <v>78</v>
-      </c>
-      <c r="M34" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="M34">
+        <v>9</v>
       </c>
       <c r="N34">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
         <v>13</v>
-      </c>
-      <c r="P34">
-        <v>4</v>
-      </c>
-      <c r="Q34">
-        <v>3</v>
       </c>
       <c r="R34">
         <v>13</v>
       </c>
       <c r="S34">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>2.25</v>
       </c>
       <c r="Z34">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="AA34">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB34">
-        <v>3.1</v>
+        <v>0.01757979177334016</v>
       </c>
       <c r="AC34">
-        <v>0.01757979177334016</v>
+        <v>0.4268646526711042</v>
       </c>
       <c r="AD34">
-        <v>0.4268646526711042</v>
+        <v>0.2681344939409455</v>
       </c>
       <c r="AE34">
-        <v>0.2681344939409455</v>
-      </c>
-      <c r="AF34">
         <v>0.3050008533879501</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>56</v>
       </c>
       <c r="AG34">
         <v>0.42</v>
@@ -5838,95 +5844,95 @@
       </c>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="1">
-        <v>157</v>
+      <c r="A35" t="s">
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="2">
+        <v>54</v>
+      </c>
+      <c r="C35" s="2">
         <v>44184</v>
       </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
       <c r="E35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>2</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>80</v>
       </c>
       <c r="L35" t="s">
-        <v>79</v>
-      </c>
-      <c r="M35" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="M35">
+        <v>9</v>
       </c>
       <c r="N35">
+        <v>13</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
         <v>9</v>
-      </c>
-      <c r="O35">
-        <v>13</v>
-      </c>
-      <c r="P35">
-        <v>2</v>
-      </c>
-      <c r="Q35">
-        <v>2</v>
       </c>
       <c r="R35">
         <v>9</v>
       </c>
       <c r="S35">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="W35">
-        <v>0</v>
+      <c r="Y35">
+        <v>2.45</v>
       </c>
       <c r="Z35">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="AA35">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="AB35">
-        <v>2.8</v>
+        <v>0.01700680272108842</v>
       </c>
       <c r="AC35">
-        <v>0.01700680272108842</v>
+        <v>0.391156462585034</v>
       </c>
       <c r="AD35">
-        <v>0.391156462585034</v>
+        <v>0.2687074829931973</v>
       </c>
       <c r="AE35">
-        <v>0.2687074829931973</v>
-      </c>
-      <c r="AF35">
         <v>0.3401360544217688</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>56</v>
       </c>
       <c r="AG35">
         <v>0.38</v>
@@ -5990,95 +5996,95 @@
       </c>
     </row>
     <row r="36" spans="1:52">
-      <c r="A36" s="1">
-        <v>47</v>
+      <c r="A36" t="s">
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="2">
+        <v>54</v>
+      </c>
+      <c r="C36" s="2">
         <v>44191</v>
       </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
       <c r="E36" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
       </c>
       <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>80</v>
+      </c>
+      <c r="L36" t="s">
+        <v>91</v>
+      </c>
+      <c r="M36">
+        <v>15</v>
+      </c>
+      <c r="N36">
+        <v>19</v>
+      </c>
+      <c r="O36">
+        <v>7</v>
+      </c>
+      <c r="P36">
         <v>3</v>
       </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36">
-        <v>2</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>79</v>
-      </c>
-      <c r="M36" t="s">
-        <v>90</v>
-      </c>
-      <c r="N36">
-        <v>15</v>
-      </c>
-      <c r="O36">
-        <v>19</v>
-      </c>
-      <c r="P36">
-        <v>7</v>
-      </c>
       <c r="Q36">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="R36">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S36">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="W36">
-        <v>0</v>
+      <c r="Y36">
+        <v>4</v>
       </c>
       <c r="Z36">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AA36">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="AB36">
-        <v>1.9</v>
+        <v>0.01803118908382066</v>
       </c>
       <c r="AC36">
-        <v>0.01803118908382066</v>
+        <v>0.2319688109161794</v>
       </c>
       <c r="AD36">
-        <v>0.2319688109161794</v>
+        <v>0.2597465886939571</v>
       </c>
       <c r="AE36">
-        <v>0.2597465886939571</v>
-      </c>
-      <c r="AF36">
         <v>0.5082846003898636</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>56</v>
       </c>
       <c r="AG36">
         <v>0.22</v>
@@ -6142,65 +6148,65 @@
       </c>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="1">
-        <v>125</v>
+      <c r="A37" t="s">
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="2">
+        <v>54</v>
+      </c>
+      <c r="C37" s="2">
         <v>44194</v>
       </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
       <c r="E37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
         <v>78</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37" t="s">
-        <v>77</v>
-      </c>
-      <c r="M37" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="M37">
+        <v>13</v>
       </c>
       <c r="N37">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37">
+        <v>3</v>
+      </c>
+      <c r="Q37">
         <v>11</v>
       </c>
-      <c r="P37">
-        <v>2</v>
-      </c>
-      <c r="Q37">
-        <v>3</v>
-      </c>
       <c r="R37">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="S37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -6208,29 +6214,29 @@
       <c r="V37">
         <v>0</v>
       </c>
-      <c r="W37">
-        <v>0</v>
+      <c r="Y37">
+        <v>3.25</v>
       </c>
       <c r="Z37">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AA37">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="AB37">
-        <v>2.2</v>
+        <v>0.01598401598401596</v>
       </c>
       <c r="AC37">
-        <v>0.01598401598401596</v>
+        <v>0.2917082917082918</v>
       </c>
       <c r="AD37">
-        <v>0.2917082917082918</v>
+        <v>0.2697302697302698</v>
       </c>
       <c r="AE37">
-        <v>0.2697302697302698</v>
-      </c>
-      <c r="AF37">
         <v>0.4385614385614386</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>56</v>
       </c>
       <c r="AG37">
         <v>0.28</v>
@@ -6294,95 +6300,95 @@
       </c>
     </row>
     <row r="38" spans="1:52">
-      <c r="A38" s="1">
-        <v>135</v>
+      <c r="A38" t="s">
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="2">
+        <v>54</v>
+      </c>
+      <c r="C38" s="2">
         <v>44198</v>
       </c>
+      <c r="D38" t="s">
+        <v>71</v>
+      </c>
       <c r="E38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
         <v>4</v>
       </c>
-      <c r="I38" t="s">
-        <v>78</v>
+      <c r="H38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="K38" t="s">
+        <v>79</v>
       </c>
       <c r="L38" t="s">
-        <v>78</v>
-      </c>
-      <c r="M38" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="M38">
+        <v>7</v>
       </c>
       <c r="N38">
+        <v>21</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>12</v>
+      </c>
+      <c r="Q38">
         <v>7</v>
       </c>
-      <c r="O38">
-        <v>21</v>
-      </c>
-      <c r="P38">
-        <v>3</v>
-      </c>
-      <c r="Q38">
-        <v>12</v>
-      </c>
       <c r="R38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>5.75</v>
+      </c>
+      <c r="Z38">
         <v>4</v>
       </c>
-      <c r="T38">
-        <v>1</v>
-      </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>5.75</v>
-      </c>
       <c r="AA38">
-        <v>4</v>
+        <v>1.57</v>
       </c>
       <c r="AB38">
-        <v>1.57</v>
+        <v>0.02028523954583217</v>
       </c>
       <c r="AC38">
-        <v>0.02028523954583217</v>
+        <v>0.1536278039324287</v>
       </c>
       <c r="AD38">
-        <v>0.1536278039324287</v>
+        <v>0.2297147604541678</v>
       </c>
       <c r="AE38">
-        <v>0.2297147604541678</v>
-      </c>
-      <c r="AF38">
         <v>0.6166574356134035</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>56</v>
       </c>
       <c r="AG38">
         <v>0.14</v>
@@ -6446,95 +6452,95 @@
       </c>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="1">
-        <v>89</v>
+      <c r="A39" t="s">
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="2">
+        <v>54</v>
+      </c>
+      <c r="C39" s="2">
         <v>44210</v>
       </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
       <c r="E39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
-        <v>77</v>
+      <c r="H39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="K39">
-        <v>0</v>
+      <c r="K39" t="s">
+        <v>78</v>
       </c>
       <c r="L39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M39" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="M39">
+        <v>11</v>
       </c>
       <c r="N39">
+        <v>12</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>10</v>
+      </c>
+      <c r="R39">
         <v>11</v>
       </c>
-      <c r="O39">
-        <v>12</v>
-      </c>
-      <c r="P39">
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>1.53</v>
+      </c>
+      <c r="Z39">
         <v>4</v>
       </c>
-      <c r="Q39">
-        <v>2</v>
-      </c>
-      <c r="R39">
-        <v>10</v>
-      </c>
-      <c r="S39">
-        <v>11</v>
-      </c>
-      <c r="T39">
-        <v>1</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>1.53</v>
-      </c>
       <c r="AA39">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AB39">
-        <v>6.5</v>
+        <v>0.01914697502932798</v>
       </c>
       <c r="AC39">
-        <v>0.01914697502932798</v>
+        <v>0.6344477962125021</v>
       </c>
       <c r="AD39">
-        <v>0.6344477962125021</v>
+        <v>0.230853024970672</v>
       </c>
       <c r="AE39">
-        <v>0.230853024970672</v>
-      </c>
-      <c r="AF39">
         <v>0.1346991788168259</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>56</v>
       </c>
       <c r="AG39">
         <v>0.62</v>
@@ -6598,95 +6604,95 @@
       </c>
     </row>
     <row r="40" spans="1:52">
-      <c r="A40" s="1">
-        <v>110</v>
+      <c r="A40" t="s">
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="2">
+        <v>54</v>
+      </c>
+      <c r="C40" s="2">
         <v>44214</v>
       </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
       <c r="E40" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
       </c>
       <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40">
-        <v>0</v>
+      <c r="K40" t="s">
+        <v>78</v>
       </c>
       <c r="L40" t="s">
-        <v>77</v>
-      </c>
-      <c r="M40" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="M40">
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>1.4</v>
+      </c>
+      <c r="Z40">
+        <v>4.5</v>
+      </c>
+      <c r="AA40">
         <v>8</v>
       </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>1.4</v>
-      </c>
-      <c r="AA40">
-        <v>4.5</v>
-      </c>
       <c r="AB40">
-        <v>8</v>
+        <v>0.0205026455026455</v>
       </c>
       <c r="AC40">
-        <v>0.0205026455026455</v>
+        <v>0.6937830687830688</v>
       </c>
       <c r="AD40">
-        <v>0.6937830687830688</v>
+        <v>0.2017195767195767</v>
       </c>
       <c r="AE40">
-        <v>0.2017195767195767</v>
-      </c>
-      <c r="AF40">
         <v>0.1044973544973545</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>56</v>
       </c>
       <c r="AG40">
         <v>0.68</v>
@@ -6750,95 +6756,95 @@
       </c>
     </row>
     <row r="41" spans="1:52">
-      <c r="A41" s="1">
-        <v>10</v>
+      <c r="A41" t="s">
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="2">
+        <v>54</v>
+      </c>
+      <c r="C41" s="2">
         <v>44222</v>
       </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
       <c r="E41" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
         <v>3</v>
       </c>
-      <c r="I41" t="s">
-        <v>78</v>
+      <c r="H41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="K41" t="s">
+        <v>79</v>
       </c>
       <c r="L41" t="s">
-        <v>78</v>
-      </c>
-      <c r="M41" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="M41">
+        <v>13</v>
       </c>
       <c r="N41">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O41">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P41">
         <v>5</v>
       </c>
       <c r="Q41">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R41">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41">
-        <v>0</v>
+      <c r="Y41">
+        <v>3.5</v>
       </c>
       <c r="Z41">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AA41">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="AB41">
-        <v>2.05</v>
+        <v>0.01709898051361465</v>
       </c>
       <c r="AC41">
-        <v>0.01709898051361465</v>
+        <v>0.2686153052006711</v>
       </c>
       <c r="AD41">
-        <v>0.2686153052006711</v>
+        <v>0.2606787972641632</v>
       </c>
       <c r="AE41">
-        <v>0.2606787972641632</v>
-      </c>
-      <c r="AF41">
         <v>0.4707058975351659</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>56</v>
       </c>
       <c r="AG41">
         <v>0.26</v>
@@ -6902,95 +6908,95 @@
       </c>
     </row>
     <row r="42" spans="1:52">
-      <c r="A42" s="1">
-        <v>166</v>
+      <c r="A42" t="s">
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="2">
+        <v>54</v>
+      </c>
+      <c r="C42" s="2">
         <v>44226</v>
       </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
       <c r="E42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>77</v>
+      <c r="H42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42">
-        <v>0</v>
+      <c r="K42" t="s">
+        <v>78</v>
       </c>
       <c r="L42" t="s">
-        <v>77</v>
-      </c>
-      <c r="M42" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="M42">
+        <v>17</v>
       </c>
       <c r="N42">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O42">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P42">
         <v>3</v>
       </c>
       <c r="Q42">
+        <v>9</v>
+      </c>
+      <c r="R42">
+        <v>16</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
         <v>3</v>
       </c>
-      <c r="R42">
-        <v>9</v>
-      </c>
-      <c r="S42">
-        <v>16</v>
-      </c>
-      <c r="T42">
-        <v>1</v>
-      </c>
       <c r="U42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42">
-        <v>0</v>
+      <c r="Y42">
+        <v>2.8</v>
       </c>
       <c r="Z42">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="AA42">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="AB42">
-        <v>2.45</v>
+        <v>0.01700680272108842</v>
       </c>
       <c r="AC42">
-        <v>0.01700680272108842</v>
+        <v>0.3401360544217688</v>
       </c>
       <c r="AD42">
-        <v>0.3401360544217688</v>
+        <v>0.2687074829931973</v>
       </c>
       <c r="AE42">
-        <v>0.2687074829931973</v>
-      </c>
-      <c r="AF42">
         <v>0.391156462585034</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>56</v>
       </c>
       <c r="AG42">
         <v>0.34</v>
@@ -7054,95 +7060,95 @@
       </c>
     </row>
     <row r="43" spans="1:52">
-      <c r="A43" s="1">
-        <v>15</v>
+      <c r="A43" t="s">
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="2">
+        <v>54</v>
+      </c>
+      <c r="C43" s="2">
         <v>44229</v>
       </c>
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
       <c r="E43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>2</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="K43">
-        <v>1</v>
+      <c r="K43" t="s">
+        <v>78</v>
       </c>
       <c r="L43" t="s">
-        <v>77</v>
-      </c>
-      <c r="M43" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="M43">
+        <v>11</v>
       </c>
       <c r="N43">
+        <v>9</v>
+      </c>
+      <c r="O43">
+        <v>7</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
         <v>11</v>
       </c>
-      <c r="O43">
-        <v>9</v>
-      </c>
-      <c r="P43">
-        <v>7</v>
-      </c>
-      <c r="Q43">
+      <c r="R43">
+        <v>8</v>
+      </c>
+      <c r="S43">
         <v>3</v>
       </c>
-      <c r="R43">
-        <v>11</v>
-      </c>
-      <c r="S43">
-        <v>8</v>
-      </c>
       <c r="T43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="Y43">
+        <v>3.6</v>
       </c>
       <c r="Z43">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AA43">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="AB43">
-        <v>2.1</v>
+        <v>0.01899951899951905</v>
       </c>
       <c r="AC43">
-        <v>0.01899951899951905</v>
+        <v>0.2587782587782587</v>
       </c>
       <c r="AD43">
-        <v>0.2587782587782587</v>
+        <v>0.284030784030784</v>
       </c>
       <c r="AE43">
-        <v>0.284030784030784</v>
-      </c>
-      <c r="AF43">
         <v>0.4571909571909571</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>56</v>
       </c>
       <c r="AG43">
         <v>0.26</v>
@@ -7206,95 +7212,95 @@
       </c>
     </row>
     <row r="44" spans="1:52">
-      <c r="A44" s="1">
-        <v>41</v>
+      <c r="A44" t="s">
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="2">
+        <v>54</v>
+      </c>
+      <c r="C44" s="2">
         <v>44233</v>
       </c>
+      <c r="D44" t="s">
+        <v>65</v>
+      </c>
       <c r="E44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>80</v>
       </c>
       <c r="L44" t="s">
-        <v>79</v>
-      </c>
-      <c r="M44" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="M44">
+        <v>12</v>
       </c>
       <c r="N44">
+        <v>14</v>
+      </c>
+      <c r="O44">
+        <v>8</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44">
         <v>12</v>
-      </c>
-      <c r="O44">
-        <v>14</v>
-      </c>
-      <c r="P44">
-        <v>8</v>
-      </c>
-      <c r="Q44">
-        <v>3</v>
       </c>
       <c r="R44">
         <v>12</v>
       </c>
       <c r="S44">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V44">
         <v>0</v>
       </c>
-      <c r="W44">
-        <v>0</v>
+      <c r="Y44">
+        <v>2.62</v>
       </c>
       <c r="Z44">
-        <v>2.62</v>
+        <v>3.5</v>
       </c>
       <c r="AA44">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="AB44">
-        <v>2.6</v>
+        <v>0.01733635321421574</v>
       </c>
       <c r="AC44">
-        <v>0.01733635321421574</v>
+        <v>0.3643430360987613</v>
       </c>
       <c r="AD44">
-        <v>0.3643430360987613</v>
+        <v>0.26837793250007</v>
       </c>
       <c r="AE44">
-        <v>0.26837793250007</v>
-      </c>
-      <c r="AF44">
         <v>0.3672790314011689</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>56</v>
       </c>
       <c r="AG44">
         <v>0.36</v>
@@ -7358,95 +7364,95 @@
       </c>
     </row>
     <row r="45" spans="1:52">
-      <c r="A45" s="1">
-        <v>51</v>
+      <c r="A45" t="s">
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="2">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2">
         <v>44241</v>
       </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
       <c r="E45" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
       </c>
       <c r="G45">
-        <v>4</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
       </c>
       <c r="J45">
-        <v>3</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>80</v>
       </c>
       <c r="L45" t="s">
-        <v>79</v>
-      </c>
-      <c r="M45" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="M45">
+        <v>13</v>
       </c>
       <c r="N45">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O45">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P45">
         <v>5</v>
       </c>
       <c r="Q45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R45">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="S45">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
-      <c r="W45">
-        <v>0</v>
+      <c r="Y45">
+        <v>1.83</v>
       </c>
       <c r="Z45">
-        <v>1.83</v>
+        <v>3.8</v>
       </c>
       <c r="AA45">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AB45">
-        <v>4</v>
+        <v>0.01986866072284532</v>
       </c>
       <c r="AC45">
-        <v>0.01986866072284532</v>
+        <v>0.5265794267088486</v>
       </c>
       <c r="AD45">
-        <v>0.5265794267088486</v>
+        <v>0.2432892340139968</v>
       </c>
       <c r="AE45">
-        <v>0.2432892340139968</v>
-      </c>
-      <c r="AF45">
         <v>0.2301313392771547</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>56</v>
       </c>
       <c r="AG45">
         <v>0.52</v>
@@ -7510,95 +7516,95 @@
       </c>
     </row>
     <row r="46" spans="1:52">
-      <c r="A46" s="1">
-        <v>139</v>
+      <c r="A46" t="s">
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="2">
+        <v>54</v>
+      </c>
+      <c r="C46" s="2">
         <v>44248</v>
       </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
       <c r="E46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>79</v>
       </c>
       <c r="L46" t="s">
-        <v>78</v>
-      </c>
-      <c r="M46" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="M46">
+        <v>7</v>
       </c>
       <c r="N46">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O46">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q46">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R46">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S46">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>2</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
-      <c r="W46">
-        <v>0</v>
+      <c r="Y46">
+        <v>6.5</v>
       </c>
       <c r="Z46">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AA46">
-        <v>4.33</v>
+        <v>1.5</v>
       </c>
       <c r="AB46">
-        <v>1.5</v>
+        <v>0.01715323424330354</v>
       </c>
       <c r="AC46">
-        <v>0.01715323424330354</v>
+        <v>0.1366929196028503</v>
       </c>
       <c r="AD46">
-        <v>0.1366929196028503</v>
+        <v>0.2137936479737865</v>
       </c>
       <c r="AE46">
-        <v>0.2137936479737865</v>
-      </c>
-      <c r="AF46">
         <v>0.6495134324233631</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>56</v>
       </c>
       <c r="AG46">
         <v>0.14</v>
@@ -7662,95 +7668,95 @@
       </c>
     </row>
     <row r="47" spans="1:52">
-      <c r="A47" s="1">
-        <v>160</v>
+      <c r="A47" t="s">
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="2">
+        <v>54</v>
+      </c>
+      <c r="C47" s="2">
         <v>44255</v>
       </c>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
       <c r="E47" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
         <v>3</v>
       </c>
-      <c r="I47" t="s">
-        <v>78</v>
+      <c r="H47" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="K47" t="s">
+        <v>79</v>
       </c>
       <c r="L47" t="s">
-        <v>78</v>
-      </c>
-      <c r="M47" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="M47">
+        <v>8</v>
       </c>
       <c r="N47">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O47">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P47">
+        <v>4</v>
+      </c>
+      <c r="Q47">
+        <v>15</v>
+      </c>
+      <c r="R47">
         <v>3</v>
       </c>
-      <c r="Q47">
-        <v>4</v>
-      </c>
-      <c r="R47">
-        <v>15</v>
-      </c>
       <c r="S47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
-      <c r="W47">
-        <v>0</v>
+      <c r="Y47">
+        <v>2.5</v>
       </c>
       <c r="Z47">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AA47">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="AB47">
-        <v>2.8</v>
+        <v>0.01708683473389357</v>
       </c>
       <c r="AC47">
-        <v>0.01708683473389357</v>
+        <v>0.3829131652661065</v>
       </c>
       <c r="AD47">
-        <v>0.3829131652661065</v>
+        <v>0.27703081232493</v>
       </c>
       <c r="AE47">
-        <v>0.27703081232493</v>
-      </c>
-      <c r="AF47">
         <v>0.3400560224089636</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>56</v>
       </c>
       <c r="AG47">
         <v>0.38</v>
@@ -7814,95 +7820,95 @@
       </c>
     </row>
     <row r="48" spans="1:52">
-      <c r="A48" s="1">
-        <v>170</v>
+      <c r="A48" t="s">
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="2">
+        <v>54</v>
+      </c>
+      <c r="C48" s="2">
         <v>44261</v>
       </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
       <c r="E48" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48" t="s">
-        <v>77</v>
+      <c r="H48" t="s">
+        <v>78</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
-      <c r="K48">
-        <v>1</v>
+      <c r="K48" t="s">
+        <v>78</v>
       </c>
       <c r="L48" t="s">
-        <v>77</v>
-      </c>
-      <c r="M48" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="M48">
+        <v>9</v>
       </c>
       <c r="N48">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O48">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P48">
+        <v>3</v>
+      </c>
+      <c r="Q48">
         <v>5</v>
       </c>
-      <c r="Q48">
-        <v>3</v>
-      </c>
       <c r="R48">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S48">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T48">
         <v>1</v>
       </c>
       <c r="U48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48">
         <v>0</v>
       </c>
-      <c r="W48">
-        <v>0</v>
+      <c r="Y48">
+        <v>5.5</v>
       </c>
       <c r="Z48">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AA48">
-        <v>4</v>
+        <v>1.61</v>
       </c>
       <c r="AB48">
-        <v>1.61</v>
+        <v>0.01764539808018066</v>
       </c>
       <c r="AC48">
-        <v>0.01764539808018066</v>
+        <v>0.1641727837380012</v>
       </c>
       <c r="AD48">
-        <v>0.1641727837380012</v>
+        <v>0.2323546019198194</v>
       </c>
       <c r="AE48">
-        <v>0.2323546019198194</v>
-      </c>
-      <c r="AF48">
         <v>0.6034726143421796</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>56</v>
       </c>
       <c r="AG48">
         <v>0.16</v>
@@ -7966,95 +7972,95 @@
       </c>
     </row>
     <row r="49" spans="1:52">
-      <c r="A49" s="1">
-        <v>163</v>
+      <c r="A49" t="s">
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="2">
+        <v>54</v>
+      </c>
+      <c r="C49" s="2">
         <v>44269</v>
       </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
       <c r="E49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
-      <c r="K49">
-        <v>1</v>
+      <c r="K49" t="s">
+        <v>78</v>
       </c>
       <c r="L49" t="s">
-        <v>77</v>
-      </c>
-      <c r="M49" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="M49">
+        <v>13</v>
       </c>
       <c r="N49">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P49">
         <v>3</v>
       </c>
       <c r="Q49">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R49">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S49">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>2.55</v>
       </c>
       <c r="Z49">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="AA49">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AB49">
-        <v>2.75</v>
+        <v>0.01663695781342837</v>
       </c>
       <c r="AC49">
-        <v>0.01663695781342837</v>
+        <v>0.3755199049316697</v>
       </c>
       <c r="AD49">
-        <v>0.3755199049316697</v>
+        <v>0.2774806892453952</v>
       </c>
       <c r="AE49">
-        <v>0.2774806892453952</v>
-      </c>
-      <c r="AF49">
         <v>0.3469994058229353</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>56</v>
       </c>
       <c r="AG49">
         <v>0.38</v>
@@ -8118,95 +8124,95 @@
       </c>
     </row>
     <row r="50" spans="1:52">
-      <c r="A50" s="1">
-        <v>168</v>
+      <c r="A50" t="s">
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="2">
+        <v>54</v>
+      </c>
+      <c r="C50" s="2">
         <v>44276</v>
       </c>
+      <c r="D50" t="s">
+        <v>73</v>
+      </c>
       <c r="E50" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
       </c>
       <c r="G50">
         <v>3</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="s">
+        <v>78</v>
+      </c>
+      <c r="I50">
         <v>3</v>
       </c>
-      <c r="I50" t="s">
-        <v>77</v>
-      </c>
       <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L50" t="s">
+        <v>95</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+      <c r="N50">
+        <v>16</v>
+      </c>
+      <c r="O50">
+        <v>5</v>
+      </c>
+      <c r="P50">
+        <v>7</v>
+      </c>
+      <c r="Q50">
+        <v>18</v>
+      </c>
+      <c r="R50">
+        <v>8</v>
+      </c>
+      <c r="S50">
         <v>3</v>
       </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" t="s">
-        <v>79</v>
-      </c>
-      <c r="M50" t="s">
-        <v>94</v>
-      </c>
-      <c r="N50">
-        <v>15</v>
-      </c>
-      <c r="O50">
-        <v>16</v>
-      </c>
-      <c r="P50">
-        <v>5</v>
-      </c>
-      <c r="Q50">
-        <v>7</v>
-      </c>
-      <c r="R50">
-        <v>18</v>
-      </c>
-      <c r="S50">
-        <v>8</v>
-      </c>
       <c r="T50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
-      <c r="W50">
-        <v>0</v>
+      <c r="Y50">
+        <v>2.8</v>
       </c>
       <c r="Z50">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="AA50">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="AB50">
-        <v>2.45</v>
+        <v>0.01700680272108842</v>
       </c>
       <c r="AC50">
-        <v>0.01700680272108842</v>
+        <v>0.3401360544217688</v>
       </c>
       <c r="AD50">
-        <v>0.3401360544217688</v>
+        <v>0.2687074829931973</v>
       </c>
       <c r="AE50">
-        <v>0.2687074829931973</v>
-      </c>
-      <c r="AF50">
         <v>0.391156462585034</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>56</v>
       </c>
       <c r="AG50">
         <v>0.34</v>
@@ -8270,95 +8276,95 @@
       </c>
     </row>
     <row r="51" spans="1:52">
-      <c r="A51" s="1">
-        <v>102</v>
+      <c r="A51" t="s">
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="2">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2">
         <v>44289</v>
       </c>
+      <c r="D51" t="s">
+        <v>56</v>
+      </c>
       <c r="E51" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
         <v>3</v>
       </c>
-      <c r="I51" t="s">
+      <c r="H51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
         <v>78</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
       <c r="L51" t="s">
-        <v>77</v>
-      </c>
-      <c r="M51" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="O51">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P51">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q51">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R51">
         <v>10</v>
       </c>
       <c r="S51">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T51">
         <v>1</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51">
         <v>0</v>
       </c>
-      <c r="W51">
-        <v>0</v>
+      <c r="Y51">
+        <v>3.1</v>
       </c>
       <c r="Z51">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="AA51">
-        <v>3.7</v>
+        <v>2.15</v>
       </c>
       <c r="AB51">
-        <v>2.15</v>
+        <v>0.01932239816710934</v>
       </c>
       <c r="AC51">
-        <v>0.01932239816710934</v>
+        <v>0.303258246994181</v>
       </c>
       <c r="AD51">
-        <v>0.303258246994181</v>
+        <v>0.2509478721031609</v>
       </c>
       <c r="AE51">
-        <v>0.2509478721031609</v>
-      </c>
-      <c r="AF51">
         <v>0.4457938809026581</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>56</v>
       </c>
       <c r="AG51">
         <v>0.3</v>
@@ -8422,95 +8428,95 @@
       </c>
     </row>
     <row r="52" spans="1:52">
-      <c r="A52" s="1">
-        <v>171</v>
+      <c r="A52" t="s">
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="2">
+        <v>54</v>
+      </c>
+      <c r="C52" s="2">
         <v>44297</v>
       </c>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
       <c r="E52" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
         <v>3</v>
       </c>
-      <c r="I52" t="s">
-        <v>78</v>
+      <c r="H52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>79</v>
       </c>
       <c r="L52" t="s">
-        <v>78</v>
-      </c>
-      <c r="M52" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="M52">
+        <v>7</v>
       </c>
       <c r="N52">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O52">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q52">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R52">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T52">
         <v>1</v>
       </c>
       <c r="U52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52">
         <v>0</v>
       </c>
-      <c r="W52">
-        <v>0</v>
+      <c r="Y52">
+        <v>6.5</v>
       </c>
       <c r="Z52">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="AA52">
-        <v>3.75</v>
+        <v>1.57</v>
       </c>
       <c r="AB52">
-        <v>1.57</v>
+        <v>0.01915183189068537</v>
       </c>
       <c r="AC52">
-        <v>0.01915183189068537</v>
+        <v>0.1346943219554685</v>
       </c>
       <c r="AD52">
-        <v>0.1346943219554685</v>
+        <v>0.2475148347759813</v>
       </c>
       <c r="AE52">
-        <v>0.2475148347759813</v>
-      </c>
-      <c r="AF52">
         <v>0.6177908432685503</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>56</v>
       </c>
       <c r="AG52">
         <v>0.12</v>
@@ -8574,95 +8580,95 @@
       </c>
     </row>
     <row r="53" spans="1:52">
-      <c r="A53" s="1">
-        <v>55</v>
+      <c r="A53" t="s">
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="2">
+        <v>54</v>
+      </c>
+      <c r="C53" s="2">
         <v>44304</v>
       </c>
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
       <c r="E53" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
-        <v>77</v>
+      <c r="H53" t="s">
+        <v>78</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
-      <c r="K53">
-        <v>0</v>
+      <c r="K53" t="s">
+        <v>78</v>
       </c>
       <c r="L53" t="s">
-        <v>77</v>
-      </c>
-      <c r="M53" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="M53">
+        <v>18</v>
       </c>
       <c r="N53">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="O53">
+        <v>5</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>9</v>
+      </c>
+      <c r="R53">
+        <v>11</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
         <v>3</v>
       </c>
-      <c r="P53">
-        <v>5</v>
-      </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
-      <c r="R53">
-        <v>9</v>
-      </c>
-      <c r="S53">
-        <v>11</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
       <c r="U53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
-      <c r="W53">
-        <v>0</v>
+      <c r="Y53">
+        <v>1.7</v>
       </c>
       <c r="Z53">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="AA53">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="AB53">
-        <v>4.8</v>
+        <v>0.01990884072927416</v>
       </c>
       <c r="AC53">
-        <v>0.01990884072927416</v>
+        <v>0.568326453388373</v>
       </c>
       <c r="AD53">
-        <v>0.568326453388373</v>
+        <v>0.2432490540075679</v>
       </c>
       <c r="AE53">
-        <v>0.2432490540075679</v>
-      </c>
-      <c r="AF53">
         <v>0.1884244926040592</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>56</v>
       </c>
       <c r="AG53">
         <v>0.5600000000000001</v>
@@ -8726,95 +8732,95 @@
       </c>
     </row>
     <row r="54" spans="1:52">
-      <c r="A54" s="1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44309</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" t="s">
         <v>70</v>
       </c>
-      <c r="B54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E54" t="s">
-        <v>55</v>
-      </c>
-      <c r="F54" t="s">
-        <v>69</v>
+      <c r="F54">
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
         <v>78</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
       <c r="L54" t="s">
-        <v>77</v>
-      </c>
-      <c r="M54" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="M54">
+        <v>14</v>
       </c>
       <c r="N54">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="O54">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>13</v>
+      </c>
+      <c r="R54">
+        <v>10</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
         <v>3</v>
       </c>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-      <c r="R54">
-        <v>13</v>
-      </c>
-      <c r="S54">
-        <v>10</v>
-      </c>
-      <c r="T54">
-        <v>1</v>
-      </c>
       <c r="U54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
-      <c r="W54">
-        <v>0</v>
+      <c r="Y54">
+        <v>2</v>
       </c>
       <c r="Z54">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="AA54">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AB54">
-        <v>3.75</v>
+        <v>0.01746031746031747</v>
       </c>
       <c r="AC54">
-        <v>0.01746031746031747</v>
+        <v>0.4825396825396825</v>
       </c>
       <c r="AD54">
-        <v>0.4825396825396825</v>
+        <v>0.2682539682539682</v>
       </c>
       <c r="AE54">
-        <v>0.2682539682539682</v>
-      </c>
-      <c r="AF54">
         <v>0.2492063492063492</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>56</v>
       </c>
       <c r="AG54">
         <v>0.48</v>
@@ -8878,95 +8884,95 @@
       </c>
     </row>
     <row r="55" spans="1:52">
-      <c r="A55" s="1">
-        <v>20</v>
+      <c r="A55" t="s">
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="2">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2">
         <v>44318</v>
       </c>
+      <c r="D55" t="s">
+        <v>75</v>
+      </c>
       <c r="E55" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
-      <c r="I55" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>79</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>79</v>
       </c>
       <c r="L55" t="s">
-        <v>78</v>
-      </c>
-      <c r="M55" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="M55">
+        <v>5</v>
       </c>
       <c r="N55">
+        <v>19</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
         <v>5</v>
       </c>
-      <c r="O55">
-        <v>19</v>
-      </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
       <c r="Q55">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S55">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U55">
         <v>1</v>
       </c>
       <c r="V55">
-        <v>1</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>3.6</v>
       </c>
       <c r="Z55">
         <v>3.6</v>
       </c>
       <c r="AA55">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="AB55">
-        <v>2</v>
+        <v>0.01851851851851853</v>
       </c>
       <c r="AC55">
-        <v>0.01851851851851853</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="AD55">
         <v>0.2592592592592592</v>
       </c>
       <c r="AE55">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="AF55">
         <v>0.4814814814814815</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>56</v>
       </c>
       <c r="AG55">
         <v>0.26</v>
@@ -9030,95 +9036,95 @@
       </c>
     </row>
     <row r="56" spans="1:52">
-      <c r="A56" s="1">
-        <v>149</v>
+      <c r="A56" t="s">
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="2">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2">
         <v>44325</v>
       </c>
+      <c r="D56" t="s">
+        <v>56</v>
+      </c>
       <c r="E56" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
       </c>
       <c r="G56">
-        <v>3</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
       </c>
       <c r="J56">
-        <v>2</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>80</v>
       </c>
       <c r="L56" t="s">
-        <v>79</v>
-      </c>
-      <c r="M56" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="M56">
+        <v>15</v>
       </c>
       <c r="N56">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O56">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
         <v>7</v>
       </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
       <c r="R56">
+        <v>9</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>1.44</v>
+      </c>
+      <c r="Z56">
+        <v>4.5</v>
+      </c>
+      <c r="AA56">
         <v>7</v>
       </c>
-      <c r="S56">
-        <v>9</v>
-      </c>
-      <c r="T56">
-        <v>1</v>
-      </c>
-      <c r="U56">
-        <v>2</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>1.44</v>
-      </c>
-      <c r="AA56">
-        <v>4.5</v>
-      </c>
       <c r="AB56">
-        <v>7</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="AC56">
-        <v>0.01984126984126984</v>
+        <v>0.6746031746031745</v>
       </c>
       <c r="AD56">
-        <v>0.6746031746031745</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="AE56">
-        <v>0.2023809523809524</v>
-      </c>
-      <c r="AF56">
         <v>0.123015873015873</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>56</v>
       </c>
       <c r="AG56">
         <v>0.66</v>
@@ -9182,95 +9188,95 @@
       </c>
     </row>
     <row r="57" spans="1:52">
-      <c r="A57" s="1">
-        <v>153</v>
+      <c r="A57" t="s">
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="2">
+        <v>54</v>
+      </c>
+      <c r="C57" s="2">
         <v>44328</v>
       </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
       <c r="E57" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>79</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>79</v>
       </c>
       <c r="L57" t="s">
-        <v>78</v>
-      </c>
-      <c r="M57" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="M57">
+        <v>19</v>
       </c>
       <c r="N57">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O57">
         <v>5</v>
       </c>
       <c r="P57">
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <v>7</v>
+      </c>
+      <c r="R57">
+        <v>6</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>1.65</v>
+      </c>
+      <c r="Z57">
+        <v>4</v>
+      </c>
+      <c r="AA57">
         <v>5</v>
       </c>
-      <c r="Q57">
-        <v>2</v>
-      </c>
-      <c r="R57">
-        <v>7</v>
-      </c>
-      <c r="S57">
-        <v>6</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>1</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <v>1.65</v>
-      </c>
-      <c r="AA57">
-        <v>4</v>
-      </c>
       <c r="AB57">
-        <v>5</v>
+        <v>0.01868686868686871</v>
       </c>
       <c r="AC57">
-        <v>0.01868686868686871</v>
+        <v>0.5873737373737373</v>
       </c>
       <c r="AD57">
-        <v>0.5873737373737373</v>
+        <v>0.2313131313131313</v>
       </c>
       <c r="AE57">
-        <v>0.2313131313131313</v>
-      </c>
-      <c r="AF57">
         <v>0.1813131313131313</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>56</v>
       </c>
       <c r="AG57">
         <v>0.58</v>
@@ -9334,95 +9340,95 @@
       </c>
     </row>
     <row r="58" spans="1:52">
-      <c r="A58" s="1">
-        <v>143</v>
+      <c r="A58" t="s">
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="2">
+        <v>54</v>
+      </c>
+      <c r="C58" s="2">
         <v>44335</v>
       </c>
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
       <c r="E58" t="s">
         <v>56</v>
       </c>
-      <c r="F58" t="s">
-        <v>55</v>
+      <c r="F58">
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
         <v>3</v>
       </c>
-      <c r="I58" t="s">
-        <v>78</v>
+      <c r="H58" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>79</v>
       </c>
       <c r="L58" t="s">
-        <v>78</v>
-      </c>
-      <c r="M58" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="M58">
+        <v>12</v>
       </c>
       <c r="N58">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O58">
         <v>6</v>
       </c>
       <c r="P58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R58">
         <v>7</v>
       </c>
       <c r="S58">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
-      <c r="W58">
-        <v>0</v>
+      <c r="Y58">
+        <v>6</v>
       </c>
       <c r="Z58">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AA58">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="AB58">
-        <v>1.5</v>
+        <v>0.01851851851851845</v>
       </c>
       <c r="AC58">
-        <v>0.01851851851851845</v>
+        <v>0.1481481481481482</v>
       </c>
       <c r="AD58">
-        <v>0.1481481481481482</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="AE58">
-        <v>0.2037037037037037</v>
-      </c>
-      <c r="AF58">
         <v>0.6481481481481481</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>56</v>
       </c>
       <c r="AG58">
         <v>0.14</v>
@@ -9486,62 +9492,62 @@
       </c>
     </row>
     <row r="59" spans="1:52">
-      <c r="A59" s="1">
-        <v>94</v>
+      <c r="A59" t="s">
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="2">
+        <v>54</v>
+      </c>
+      <c r="C59" s="2">
         <v>44339</v>
       </c>
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
       <c r="E59" t="s">
-        <v>55</v>
-      </c>
-      <c r="F59" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>2</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>80</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
-      <c r="K59">
-        <v>0</v>
+      <c r="K59" t="s">
+        <v>78</v>
       </c>
       <c r="L59" t="s">
-        <v>77</v>
-      </c>
-      <c r="M59" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="M59">
+        <v>16</v>
       </c>
       <c r="N59">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O59">
         <v>5</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R59">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S59">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -9552,29 +9558,29 @@
       <c r="V59">
         <v>0</v>
       </c>
-      <c r="W59">
-        <v>0</v>
+      <c r="Y59">
+        <v>1.57</v>
       </c>
       <c r="Z59">
-        <v>1.57</v>
+        <v>4.33</v>
       </c>
       <c r="AA59">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="AB59">
-        <v>5.25</v>
+        <v>0.01945524928417204</v>
       </c>
       <c r="AC59">
-        <v>0.01945524928417204</v>
+        <v>0.6174874258750636</v>
       </c>
       <c r="AD59">
-        <v>0.6174874258750636</v>
+        <v>0.211491632932918</v>
       </c>
       <c r="AE59">
-        <v>0.211491632932918</v>
-      </c>
-      <c r="AF59">
         <v>0.1710209411920184</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>56</v>
       </c>
       <c r="AG59">
         <v>0.62</v>
